--- a/TestData/T2149_Contacts_ContactEditPage_WorkFlowUpdateGenderfieldbasedonSalutations.xlsx
+++ b/TestData/T2149_Contacts_ContactEditPage_WorkFlowUpdateGenderfieldbasedonSalutations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3E5E22-52AC-42EB-9940-B5826B36A411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="5280"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -64,9 +65,6 @@
     <t>ActivityCompany</t>
   </si>
   <si>
-    <t>Drew Koecher</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -107,12 +105,15 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Ayati Arvind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,25 +434,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,21 +472,21 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -497,21 +498,21 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -523,21 +524,21 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -549,21 +550,21 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -572,24 +573,24 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -598,24 +599,24 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -624,23 +625,23 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
@@ -648,34 +649,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -687,28 +688,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
